--- a/data/evaluation/evaluation_North_Winter_Carrots.xlsx
+++ b/data/evaluation/evaluation_North_Winter_Carrots.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4810.392857142857</v>
+        <v>4662</v>
       </c>
       <c r="C3" t="n">
-        <v>54135528.25063775</v>
+        <v>51973159.78125</v>
       </c>
       <c r="D3" t="n">
-        <v>7357.684979029596</v>
+        <v>7209.241276393099</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1203645821986218</v>
+        <v>0.1555003969486702</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4375.065020698052</v>
+        <v>4373.012174107143</v>
       </c>
       <c r="C4" t="n">
-        <v>53702697.85021437</v>
+        <v>52418990.87312835</v>
       </c>
       <c r="D4" t="n">
-        <v>7328.212459407435</v>
+        <v>7240.096054136875</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1273975411890806</v>
+        <v>0.1482561927920656</v>
       </c>
     </row>
     <row r="5">
